--- a/FileUploadTemplates/Contacts.xlsx
+++ b/FileUploadTemplates/Contacts.xlsx
@@ -24,18 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Phone number</t>
   </si>
   <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Mayabi</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
     <t>National Id</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
   </si>
 </sst>
 </file>
@@ -353,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,13 +377,27 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>254717742500</v>
+      </c>
+      <c r="D2">
+        <v>34117543</v>
       </c>
     </row>
   </sheetData>
